--- a/data/表4-答案文件.xlsx
+++ b/data/表4-答案文件.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的坚果云\2023.5数学建模\8.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX-105\math_model_revice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B0032-9CAE-4606-9E70-FD12647B3296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5D41E-6FBA-4111-813C-DFC95B21EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -754,9 +765,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -768,8 +776,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,43 +1015,43 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="6"/>
+    <col min="1" max="1" width="8.58203125" style="6"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="5"/>
-    <col min="9" max="9" width="21.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="6"/>
+    <col min="7" max="7" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" style="5"/>
+    <col min="9" max="9" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1053,1306 +1066,2232 @@
       <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>20161212002136</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3">
+        <v>7.1013035154137441E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>20160406002131</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="3">
+        <v>7.4144345955770657E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>20160413000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>42473.367361111108</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.86905960974791063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>20161215001667</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="3">
+        <v>9.1144973818003225E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>20161222000978</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>42727.448611111111</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.7026310584891311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>20161110001074</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="3">
+        <v>6.8905959091622018E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>20161208000139</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="3">
+        <v>6.7438023063054769E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>20161219000091</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3">
+        <v>0.14539952435439626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>20161031001987</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>42676.436805555553</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.86348122441708841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>20161012002008</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="3">
+        <v>9.5114865390000428E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>20160209000219</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3">
+        <v>0.25679012298649218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>20161031001142</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="3">
+        <v>7.6468715091993961E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>20161124000397</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="3">
+        <v>6.6684280632850854E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>20160513001799</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="3">
+        <v>0.12135720350107848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>20161013001234</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3">
+        <v>0.10709746652338539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>20161130000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="3">
+        <v>6.0683623077276115E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>20160510002436</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>42501.446527777778</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.91296537495370789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20160602001707</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3">
+        <v>0.12097882233024396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20160117000135</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="3">
+        <v>0.11972599722355043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>20160723000013</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="3">
+        <v>9.0863930461787368E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>20160317001244</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="3">
+        <v>0.10978235330054983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>20160803001239</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="3">
+        <v>0.32857417239661968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>20160321000142</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3">
+        <v>6.0281721979492678E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>20170802000637</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="3">
+        <v>7.5622718641581765E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>20171226002293</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="3">
+        <v>0.29413821576642007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>20171008000512</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="3">
+        <v>0.22866591531030658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>20170206000071</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="3">
+        <v>0.1110724503204808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>20171013002097</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="3">
+        <v>0.41799735236973551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>20170607000010</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="3">
+        <v>8.0546884732181134E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>20171025000480</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="3">
+        <v>0.28190685954246819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>20170307002130</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="3">
+        <v>0.12031360132035172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>20171009000137</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="3">
+        <v>0.16963036721698699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>20170115000362</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16">
+        <v>42751.82708333333</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.79755425846039008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>20170119000729</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="C37" s="15">
+        <v>0</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="3">
+        <v>8.4535682210966467E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>20171014001244</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="3">
+        <v>8.4695483752521172E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>20170204001714</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16">
+        <v>42772.42083333333</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.530254141332555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>20170426000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="C40" s="15">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="3">
+        <v>0.71890066903131611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>20170518002194</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16">
+        <v>42874.401388888888</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.76710129195712029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>20170425002487</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
+        <v>42851.934027777781</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.73820132951325135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>20170902000876</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="C43" s="15">
+        <v>0</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="3">
+        <v>0.44305213715199215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>20171002000282</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="3">
+        <v>0.59757399350520291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>20170420000636</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="C45" s="15">
+        <v>0</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="3">
+        <v>9.6304309456186385E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>20170325000428</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="3">
+        <v>0.23982473381190189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>20170528000084</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="3">
+        <v>9.7651118782829852E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>20170324001892</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="C48" s="15">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="3">
+        <v>9.4854611044338302E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>20170511000016</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="C49" s="15">
+        <v>0</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="3">
+        <v>5.9583687170995582E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>20171019001652</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="3">
+        <v>0.11803294422100249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>20170402000556</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16">
+        <v>42828.297222222223</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.88495046705151748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>20171005000770</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="C52" s="15">
+        <v>0</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="3">
+        <v>0.13300913133913719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>20171105000372</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="3">
+        <v>8.8144377912297622E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>20170422000935</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="3">
+        <v>5.6430559430970577E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>20170608001310</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="C55" s="15">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="3">
+        <v>0.14288674624335618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>20170511001392</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="3">
+        <v>4.267599047196597E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>20170612002216</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="C57" s="15">
+        <v>1</v>
+      </c>
+      <c r="D57" s="16">
+        <v>42899.429861111108</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.89942313374623162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>20170316001977</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="3">
+        <v>0.32121573657132263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>20170120000152</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="3">
+        <v>0.11319608273691605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>20170825001844</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="16">
+        <v>42973.440972222219</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.87915415378156625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>20170125000984</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="3">
+        <v>8.1007754895265849E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>20170912002314</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="C62" s="15">
+        <v>0</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="3">
+        <v>5.6775489562424494E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>20180109000613</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16">
+        <v>43110.361111111109</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.84009588136088931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>20180226000725</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="16">
+        <v>43157.644444444442</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.89163220121678732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>20181221002264</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="C65" s="15">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="3">
+        <v>0.11178576664302467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>20181020001229</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="C66" s="15">
+        <v>0</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="3">
+        <v>7.4406882566795909E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>20180801000501</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+      <c r="C67" s="15">
+        <v>0</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="3">
+        <v>0.13128616536834128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>20180131001727</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="C68" s="15">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="3">
+        <v>6.8002653193951684E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>20181208000909</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="C69" s="15">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="3">
+        <v>8.2518284729311345E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>20181207001317</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="3">
+        <v>5.8898189488034602E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>20180412001426</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+      <c r="C71" s="15">
+        <v>0</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="3">
+        <v>0.21761647277773999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>20180619001505</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="C72" s="15">
+        <v>0</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="3">
+        <v>0.1383975602253045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>20180427000292</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+      <c r="C73" s="15">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16">
+        <v>43217.626388888886</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.77705886542709179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>20181103001264</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="3">
+        <v>0.15422489920255811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>20181007000826</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="s">
+      <c r="C75" s="15">
+        <v>0</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="3">
+        <v>8.7856155197500063E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>20180911001645</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="C76" s="15">
+        <v>0</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="3">
+        <v>9.9352352414002143E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>20180719000020</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
+      <c r="C77" s="15">
+        <v>0</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="3">
+        <v>0.12687981362958289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>20180428001767</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="C78" s="15">
+        <v>0</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="3">
+        <v>0.10708671126367963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>20180619002401</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16">
+        <v>43271.395138888889</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.6824933802904406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>20180503002304</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="C80" s="15">
+        <v>1</v>
+      </c>
+      <c r="D80" s="16">
+        <v>43224.402083333334</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.85587889759053781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>20180929000040</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
+      <c r="C81" s="15">
+        <v>0</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="3">
+        <v>0.12879591834139073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>20180929000037</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="C82" s="15">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16">
+        <v>43373.394444444442</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.88435162109977439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>20180130001917</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16">
+        <v>43131.688888888886</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.70373790895045929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>20180120000249</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="16">
+        <v>43121.405555555553</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.86551690334462728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>20180221000793</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+      <c r="C85" s="15">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="3">
+        <v>6.6058708951912903E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>20181004000706</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
+      <c r="C86" s="15">
+        <v>0</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="3">
+        <v>6.6174408435361362E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>20180716000006</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
+      <c r="C87" s="15">
+        <v>0</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="3">
+        <v>8.8986097213076765E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>20181127002511</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
+      <c r="C88" s="15">
+        <v>0</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="3">
+        <v>8.6527478243060993E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>20180108000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
+      <c r="C89" s="15">
+        <v>0</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="3">
+        <v>0.10536460656283769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>20180216000198</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="C90" s="15">
+        <v>0</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="3">
+        <v>9.3811239543471869E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>20180521000314</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="C91" s="15">
+        <v>0</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="3">
+        <v>0.10286944421767459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>20180314002318</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
+      <c r="C92" s="15">
+        <v>0</v>
+      </c>
+      <c r="D92" s="15"/>
+      <c r="E92" s="3">
+        <v>0.13685235213844119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>20180910002366</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="s">
+      <c r="C93" s="15">
+        <v>0</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="3">
+        <v>7.3177630010976311E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>20181019001130</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="s">
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="3">
+        <v>0.15078203169143789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>20181116001089</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="C95" s="15">
+        <v>1</v>
+      </c>
+      <c r="D95" s="16">
+        <v>43420.859027777777</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.71925147706454151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>20181214000208</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
+      <c r="C96" s="15">
+        <v>0</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="3">
+        <v>0.11051856664700414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>20180412001795</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="s">
+      <c r="C97" s="15">
+        <v>0</v>
+      </c>
+      <c r="D97" s="15"/>
+      <c r="E97" s="3">
+        <v>7.5115070192293659E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>20180316001329</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="s">
+      <c r="C98" s="15">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16">
+        <v>43175.795138888891</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.8707905812827097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>20180802001789</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
+      <c r="C99" s="15">
+        <v>0</v>
+      </c>
+      <c r="D99" s="15"/>
+      <c r="E99" s="3">
+        <v>0.17490618039401087</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>20181010000767</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="C100" s="15">
+        <v>0</v>
+      </c>
+      <c r="D100" s="15"/>
+      <c r="E100" s="3">
+        <v>8.6577309428503973E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>20180612002507</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
+      <c r="C101" s="15">
+        <v>1</v>
+      </c>
+      <c r="D101" s="16">
+        <v>43265.615972222222</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.6522511950829768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>20180620002296</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
+      <c r="C102" s="15">
+        <v>1</v>
+      </c>
+      <c r="D102" s="16">
+        <v>43272.404861111114</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.82770574469317304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>20180314000010</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
+      <c r="C103" s="15">
+        <v>0</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="3">
+        <v>4.3125878010735356E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="8">
         <v>20180311000432</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
+      <c r="E104" s="3">
+        <v>0.63775177499752667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="8">
         <v>20180708000024</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="s">
+      <c r="E105" s="3">
+        <v>0.51810861772263939</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="8">
         <v>20181015001677</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
+      <c r="E106" s="3">
+        <v>0.16468194712960829</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="8">
         <v>20190105000694</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="s">
+      <c r="E107" s="3">
+        <v>4.7755102250719092E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="8">
         <v>20190108002459</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="s">
+      <c r="E108" s="3">
+        <v>0.14255899882571568</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="8">
         <v>20190519000853</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="s">
+      <c r="E109" s="3">
+        <v>0.2653309516759898</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="8">
         <v>20190526000209</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="s">
+      <c r="E110" s="3">
+        <v>0.10594146066226352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>20190701002502</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
+      <c r="E111" s="3">
+        <v>0.13374573911072002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="8">
         <v>20190716000013</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
+      <c r="E112" s="3">
+        <v>0.2997801182329608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>20190717001385</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="s">
+      <c r="E113" s="3">
+        <v>0.32581874080880247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>20190727000556</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
+      <c r="E114" s="3">
+        <v>0.12491961855960045</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>20190803000014</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
+      <c r="E115" s="3">
+        <v>0.1814258474299717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>20190901000442</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
+      <c r="E116" s="3">
+        <v>0.40591825538912218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="8">
         <v>20190903000373</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
+      <c r="E117" s="3">
+        <v>0.27458665971322499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="8">
         <v>20190904002299</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
+      <c r="E118" s="3">
+        <v>0.16442519963233831</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="8">
         <v>20190906001283</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
+      <c r="E119" s="3">
+        <v>0.10085810901056699</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="8">
         <v>20190917002094</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
+      <c r="E120" s="3">
+        <v>8.8337622135690089E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="8">
         <v>20190923002580</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="E121" s="3">
+        <v>0.17723368691483959</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>20191003000352</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="s">
+      <c r="E122" s="3">
+        <v>0.14601615158109815</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>20191004001025</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="s">
+      <c r="E123" s="3">
+        <v>0.223031237685518</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>20191027000468</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="s">
+      <c r="E124" s="3">
+        <v>0.3898071712393274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>20191028002738</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
+      <c r="E125" s="3">
+        <v>0.17737830540085098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="8">
         <v>20191024001280</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
+      <c r="E126" s="3">
+        <v>5.924884390662552E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="8">
         <v>20191030001526</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="s">
+      <c r="E127" s="3">
+        <v>0.57874586545810147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>136</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>20191111002510</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="s">
+      <c r="E128" s="3">
+        <v>0.32580762164088839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="8">
         <v>20191126002590</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="15" t="s">
+      <c r="E129" s="3">
+        <v>0.43084060969206872</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="8">
         <v>20191127002176</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="s">
+      <c r="E130" s="3">
+        <v>0.17094382173321071</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="8">
         <v>20191208000592</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
+      <c r="E131" s="3">
+        <v>0.2530656947121781</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="8">
         <v>20191224000008</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+      <c r="E132" s="3">
+        <v>0.14657409297054708</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="8">
         <v>20191228000237</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="15" t="s">
+      <c r="E133" s="3">
+        <v>0.17865617470445935</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="14">
+      <c r="B134" s="13">
         <v>20160413000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="15" t="s">
+      <c r="E134" s="3">
+        <v>0.36846012756245095</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="14">
+      <c r="B135" s="13">
         <v>20161215001667</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="15" t="s">
+      <c r="E135" s="3">
+        <v>0.12391674262517473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="14">
+      <c r="B136" s="13">
         <v>20200112000228</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="15" t="s">
+      <c r="E136" s="3">
+        <v>0.16468122828396509</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="14">
+      <c r="B137" s="13">
         <v>20200101000392</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="15" t="s">
+      <c r="E137" s="3">
+        <v>0.17979865591117683</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="14">
+      <c r="B138" s="13">
         <v>20201130003288</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="15" t="s">
+      <c r="E138" s="3">
+        <v>0.19997658868027599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="14">
+      <c r="B139" s="13">
         <v>20201203002778</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="15" t="s">
+      <c r="E139" s="3">
+        <v>9.8513561624312657E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="14">
+      <c r="B140" s="13">
         <v>20201217002368</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="15" t="s">
+      <c r="E140" s="3">
+        <v>0.13066103806703333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="14">
+      <c r="B141" s="13">
         <v>20200403000012</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="15" t="s">
+      <c r="E141" s="3">
+        <v>0.21199067167563912</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>150</v>
       </c>
-      <c r="B142" s="14">
+      <c r="B142" s="13">
         <v>20200814000015</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
+      <c r="E142" s="3">
+        <v>0.30801144561043919</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>151</v>
       </c>
-      <c r="B143" s="14">
+      <c r="B143" s="13">
         <v>20200412000331</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="15" t="s">
+      <c r="E143" s="3">
+        <v>0.26845483121151337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="14">
+      <c r="B144" s="13">
         <v>20200711001264</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
+      <c r="E144" s="3">
+        <v>3.7666945328603041E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="14">
+      <c r="B145" s="13">
         <v>20200411000014</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="15" t="s">
+      <c r="E145" s="3">
+        <v>0.19877210579838439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="14">
+      <c r="B146" s="13">
         <v>20200214000572</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="15" t="s">
+      <c r="E146" s="3">
+        <v>0.13976698323232359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="14">
+      <c r="B147" s="13">
         <v>20200124000041</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="15" t="s">
+      <c r="E147" s="3">
+        <v>0.20384857227466199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="14">
+      <c r="B148" s="13">
         <v>20200613001086</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="15" t="s">
+      <c r="E148" s="3">
+        <v>9.797838563291357E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="14">
+      <c r="B149" s="13">
         <v>20200531000253</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="15" t="s">
+      <c r="E149" s="3">
+        <v>9.3685945975341994E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="14">
+      <c r="B150" s="13">
         <v>20201220000155</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="15" t="s">
+      <c r="E150" s="3">
+        <v>0.5527584725097705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>159</v>
       </c>
-      <c r="B151" s="14">
+      <c r="B151" s="13">
         <v>20200609001016</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="15" t="s">
+      <c r="E151" s="3">
+        <v>0.12383785456768615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="14">
+      <c r="B152" s="13">
         <v>20200409001101</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
+      <c r="E152" s="3">
+        <v>0.21359676254787718</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="14">
+      <c r="B153" s="13">
         <v>20200118000372</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="15" t="s">
+      <c r="E153" s="3">
+        <v>9.7241599405370069E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="14">
+      <c r="B154" s="13">
         <v>20201023001238</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="15" t="s">
+      <c r="E154" s="3">
+        <v>0.22878194255339648</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>163</v>
       </c>
-      <c r="B155" s="14">
+      <c r="B155" s="13">
         <v>20201109000009</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="15" t="s">
+      <c r="E155" s="3">
+        <v>0.10897004923104867</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>20201212001420</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="15" t="s">
+      <c r="E156" s="3">
+        <v>0.15236705633638911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="13">
         <v>20201129000299</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="s">
+      <c r="E157" s="3">
+        <v>0.16588028468096211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>166</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>20200301000025</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="15" t="s">
+      <c r="E158" s="3">
+        <v>0.36688528168409545</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>167</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B159" s="13">
         <v>20200306000927</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="15" t="s">
+      <c r="E159" s="3">
+        <v>0.11285115599597435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>168</v>
       </c>
-      <c r="B160" s="14">
+      <c r="B160" s="13">
         <v>20201009003102</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="s">
+      <c r="E160" s="3">
+        <v>0.16249810006566992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="14">
+      <c r="B161" s="13">
         <v>20200410001952</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="15" t="s">
+      <c r="E161" s="3">
+        <v>0.43666541108551338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>170</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>20200218000582</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="15" t="s">
+      <c r="E162" s="3">
+        <v>0.21513381475841958</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="13">
         <v>20200821002584</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.17408701507183388</v>
       </c>
     </row>
   </sheetData>

--- a/data/表4-答案文件.xlsx
+++ b/data/表4-答案文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RX-105\math_model_revice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5D41E-6FBA-4111-813C-DFC95B21EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD31B9-85EC-429E-B82E-EBC33311A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,9 +634,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -755,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,7 +783,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1026,7 @@
     <col min="1" max="1" width="8.58203125" style="6"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -1051,7 +1054,7 @@
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1078,7 +1081,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
@@ -1098,9 +1101,9 @@
       <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3">
-        <v>7.1013035154137441E-2</v>
+        <v>0.25279035999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1113,9 +1116,9 @@
       <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3">
-        <v>7.4144345955770657E-2</v>
+        <v>0.26473131999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1128,11 +1131,11 @@
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
-        <v>42473.367361111108</v>
+      <c r="D6" s="18">
+        <v>9.5166666666666604</v>
       </c>
       <c r="E6" s="3">
-        <v>0.86905960974791063</v>
+        <v>0.61018074</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1145,9 +1148,9 @@
       <c r="C7" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3">
-        <v>9.1144973818003225E-2</v>
+        <v>0.4533799</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1160,11 +1163,11 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
-        <v>42727.448611111111</v>
+      <c r="D8" s="18">
+        <v>26.466666666666601</v>
       </c>
       <c r="E8" s="3">
-        <v>0.7026310584891311</v>
+        <v>0.55563724000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1177,9 +1180,9 @@
       <c r="C9" s="15">
         <v>0</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3">
-        <v>6.8905959091622018E-2</v>
+        <v>0.31470680000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1192,9 +1195,9 @@
       <c r="C10" s="15">
         <v>0</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3">
-        <v>6.7438023063054769E-2</v>
+        <v>0.30172947</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1207,9 +1210,9 @@
       <c r="C11" s="15">
         <v>0</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3">
-        <v>0.14539952435439626</v>
+        <v>0.40364280000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1222,11 +1225,11 @@
       <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="D12" s="16">
-        <v>42676.436805555553</v>
+      <c r="D12" s="18">
+        <v>40.053333333333299</v>
       </c>
       <c r="E12" s="3">
-        <v>0.86348122441708841</v>
+        <v>0.67369489999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1239,9 +1242,9 @@
       <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="3">
-        <v>9.5114865390000428E-2</v>
+        <v>0.43654831999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1254,9 +1257,9 @@
       <c r="C14" s="15">
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3">
-        <v>0.25679012298649218</v>
+        <v>0.38864379999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1269,9 +1272,9 @@
       <c r="C15" s="15">
         <v>0</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="3">
-        <v>7.6468715091993961E-2</v>
+        <v>0.27630103</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1284,9 +1287,9 @@
       <c r="C16" s="15">
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3">
-        <v>6.6684280632850854E-2</v>
+        <v>0.27200796999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1299,9 +1302,9 @@
       <c r="C17" s="15">
         <v>0</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="3">
-        <v>0.12135720350107848</v>
+        <v>0.32481517999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1314,9 +1317,9 @@
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="3">
-        <v>0.10709746652338539</v>
+        <v>0.36279663000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1329,9 +1332,9 @@
       <c r="C19" s="15">
         <v>0</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3">
-        <v>6.0683623077276115E-2</v>
+        <v>0.26824543000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,11 +1347,11 @@
       <c r="C20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
-        <v>42501.446527777778</v>
+      <c r="D20" s="18">
+        <v>14.8666666666666</v>
       </c>
       <c r="E20" s="3">
-        <v>0.91296537495370789</v>
+        <v>0.71372069999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,9 +1364,9 @@
       <c r="C21" s="15">
         <v>0</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3">
-        <v>0.12097882233024396</v>
+        <v>0.31525334999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1376,9 +1379,9 @@
       <c r="C22" s="15">
         <v>0</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3">
-        <v>0.11972599722355043</v>
+        <v>0.32224014000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,9 +1394,9 @@
       <c r="C23" s="15">
         <v>0</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="3">
-        <v>9.0863930461787368E-2</v>
+        <v>0.31956345000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,9 +1409,9 @@
       <c r="C24" s="15">
         <v>0</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3">
-        <v>0.10978235330054983</v>
+        <v>0.32218479999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,9 +1424,9 @@
       <c r="C25" s="15">
         <v>0</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="3">
-        <v>0.32857417239661968</v>
+        <v>0.45455316000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1436,9 +1439,9 @@
       <c r="C26" s="15">
         <v>0</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3">
-        <v>6.0281721979492678E-2</v>
+        <v>0.32049617000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,9 +1454,9 @@
       <c r="C27" s="15">
         <v>0</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="3">
-        <v>7.5622718641581765E-2</v>
+        <v>0.35702830000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,9 +1469,9 @@
       <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3">
-        <v>0.29413821576642007</v>
+        <v>0.27345237</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1481,9 +1484,9 @@
       <c r="C29" s="15">
         <v>0</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="3">
-        <v>0.22866591531030658</v>
+        <v>0.29955396000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,9 +1499,9 @@
       <c r="C30" s="15">
         <v>0</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3">
-        <v>0.1110724503204808</v>
+        <v>0.46410725000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1511,9 +1514,9 @@
       <c r="C31" s="15">
         <v>0</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="3">
-        <v>0.41799735236973551</v>
+        <v>0.31385144999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1526,9 +1529,9 @@
       <c r="C32" s="15">
         <v>0</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3">
-        <v>8.0546884732181134E-2</v>
+        <v>0.27638980000000002</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,9 +1544,9 @@
       <c r="C33" s="15">
         <v>0</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="3">
-        <v>0.28190685954246819</v>
+        <v>0.40029979999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,9 +1559,9 @@
       <c r="C34" s="15">
         <v>0</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="3">
-        <v>0.12031360132035172</v>
+        <v>0.36786564999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,9 +1574,9 @@
       <c r="C35" s="15">
         <v>0</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3">
-        <v>0.16963036721698699</v>
+        <v>0.50605319999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,11 +1589,11 @@
       <c r="C36" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="16">
-        <v>42751.82708333333</v>
+      <c r="D36" s="18">
+        <v>30.8</v>
       </c>
       <c r="E36" s="3">
-        <v>0.79755425846039008</v>
+        <v>0.56520486000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,9 +1606,9 @@
       <c r="C37" s="15">
         <v>0</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3">
-        <v>8.4535682210966467E-2</v>
+        <v>0.24953023999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,9 +1621,9 @@
       <c r="C38" s="15">
         <v>0</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3">
-        <v>8.4695483752521172E-2</v>
+        <v>0.29121061999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1633,11 +1636,11 @@
       <c r="C39" s="15">
         <v>1</v>
       </c>
-      <c r="D39" s="16">
-        <v>42772.42083333333</v>
+      <c r="D39" s="18">
+        <v>39.5</v>
       </c>
       <c r="E39" s="3">
-        <v>0.530254141332555</v>
+        <v>0.66605674999999998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1650,9 +1653,9 @@
       <c r="C40" s="15">
         <v>0</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3">
-        <v>0.71890066903131611</v>
+        <v>0.59544189999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1665,11 +1668,11 @@
       <c r="C41" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="16">
-        <v>42874.401388888888</v>
+      <c r="D41" s="18">
+        <v>15.816666666666601</v>
       </c>
       <c r="E41" s="3">
-        <v>0.76710129195712029</v>
+        <v>0.56387246000000002</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,11 +1685,11 @@
       <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="16">
-        <v>42851.934027777781</v>
+      <c r="D42" s="18">
+        <v>29.183333333333302</v>
       </c>
       <c r="E42" s="3">
-        <v>0.73820132951325135</v>
+        <v>0.70557994000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1699,9 +1702,9 @@
       <c r="C43" s="15">
         <v>0</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="3">
-        <v>0.44305213715199215</v>
+        <v>0.33361353999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,9 +1717,9 @@
       <c r="C44" s="15">
         <v>0</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3">
-        <v>0.59757399350520291</v>
+        <v>0.39653838000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1729,9 +1732,9 @@
       <c r="C45" s="15">
         <v>0</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3">
-        <v>9.6304309456186385E-2</v>
+        <v>0.30335504000000002</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1744,9 +1747,9 @@
       <c r="C46" s="15">
         <v>0</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3">
-        <v>0.23982473381190189</v>
+        <v>0.47241660000000002</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1759,9 +1762,9 @@
       <c r="C47" s="15">
         <v>0</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3">
-        <v>9.7651118782829852E-2</v>
+        <v>0.39558939999999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,9 +1777,9 @@
       <c r="C48" s="15">
         <v>0</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3">
-        <v>9.4854611044338302E-2</v>
+        <v>0.29004106000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1789,9 +1792,9 @@
       <c r="C49" s="15">
         <v>0</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="3">
-        <v>5.9583687170995582E-2</v>
+        <v>0.3025236</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1804,9 +1807,9 @@
       <c r="C50" s="15">
         <v>0</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3">
-        <v>0.11803294422100249</v>
+        <v>0.26452258000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1819,11 +1822,11 @@
       <c r="C51" s="15">
         <v>1</v>
       </c>
-      <c r="D51" s="16">
-        <v>42828.297222222223</v>
+      <c r="D51" s="18">
+        <v>12.8666666666666</v>
       </c>
       <c r="E51" s="3">
-        <v>0.88495046705151748</v>
+        <v>0.67604834000000003</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1836,9 +1839,9 @@
       <c r="C52" s="15">
         <v>0</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3">
-        <v>0.13300913133913719</v>
+        <v>0.29444203000000002</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1851,9 +1854,9 @@
       <c r="C53" s="15">
         <v>0</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="3">
-        <v>8.8144377912297622E-2</v>
+        <v>0.34266537000000002</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1866,9 +1869,9 @@
       <c r="C54" s="15">
         <v>0</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3">
-        <v>5.6430559430970577E-2</v>
+        <v>0.25587562000000003</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1881,9 +1884,9 @@
       <c r="C55" s="15">
         <v>1</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="3">
-        <v>0.14288674624335618</v>
+        <v>0.41005283999999997</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1896,9 +1899,9 @@
       <c r="C56" s="15">
         <v>0</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3">
-        <v>4.267599047196597E-2</v>
+        <v>0.2717038</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1911,11 +1914,11 @@
       <c r="C57" s="15">
         <v>1</v>
       </c>
-      <c r="D57" s="16">
-        <v>42899.429861111108</v>
+      <c r="D57" s="18">
+        <v>16.216666666666601</v>
       </c>
       <c r="E57" s="3">
-        <v>0.89942313374623162</v>
+        <v>0.66549754000000005</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1928,9 +1931,9 @@
       <c r="C58" s="15">
         <v>0</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="3">
-        <v>0.32121573657132263</v>
+        <v>0.3138727</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1943,9 +1946,9 @@
       <c r="C59" s="15">
         <v>0</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="3">
-        <v>0.11319608273691605</v>
+        <v>0.49879390000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1958,11 +1961,11 @@
       <c r="C60" s="15">
         <v>1</v>
       </c>
-      <c r="D60" s="16">
-        <v>42973.440972222219</v>
+      <c r="D60" s="18">
+        <v>14.6166666666666</v>
       </c>
       <c r="E60" s="3">
-        <v>0.87915415378156625</v>
+        <v>0.64766259999999998</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,9 +1978,9 @@
       <c r="C61" s="15">
         <v>0</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="3">
-        <v>8.1007754895265849E-2</v>
+        <v>0.37977660000000002</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1990,9 +1993,9 @@
       <c r="C62" s="15">
         <v>0</v>
       </c>
-      <c r="D62" s="15"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="3">
-        <v>5.6775489562424494E-2</v>
+        <v>0.26807724999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,11 +2008,11 @@
       <c r="C63" s="15">
         <v>1</v>
       </c>
-      <c r="D63" s="16">
-        <v>43110.361111111109</v>
+      <c r="D63" s="18">
+        <v>23.733333333333299</v>
       </c>
       <c r="E63" s="3">
-        <v>0.84009588136088931</v>
+        <v>0.60052050000000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,11 +2025,11 @@
       <c r="C64" s="15">
         <v>1</v>
       </c>
-      <c r="D64" s="16">
-        <v>43157.644444444442</v>
+      <c r="D64" s="18">
+        <v>6.5333333333333297</v>
       </c>
       <c r="E64" s="3">
-        <v>0.89163220121678732</v>
+        <v>0.7011984</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,9 +2042,9 @@
       <c r="C65" s="15">
         <v>0</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="3">
-        <v>0.11178576664302467</v>
+        <v>0.31082100000000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,9 +2057,9 @@
       <c r="C66" s="15">
         <v>0</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3">
-        <v>7.4406882566795909E-2</v>
+        <v>0.31372899999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2069,9 +2072,9 @@
       <c r="C67" s="15">
         <v>0</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="3">
-        <v>0.13128616536834128</v>
+        <v>0.31799155000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2084,9 +2087,9 @@
       <c r="C68" s="15">
         <v>0</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3">
-        <v>6.8002653193951684E-2</v>
+        <v>0.25666386000000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2099,9 +2102,9 @@
       <c r="C69" s="15">
         <v>0</v>
       </c>
-      <c r="D69" s="15"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="3">
-        <v>8.2518284729311345E-2</v>
+        <v>0.33371933999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,9 +2117,9 @@
       <c r="C70" s="15">
         <v>0</v>
       </c>
-      <c r="D70" s="15"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="3">
-        <v>5.8898189488034602E-2</v>
+        <v>0.26927635</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,9 +2132,9 @@
       <c r="C71" s="15">
         <v>0</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="3">
-        <v>0.21761647277773999</v>
+        <v>0.46585887999999998</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2144,9 +2147,9 @@
       <c r="C72" s="15">
         <v>0</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="3">
-        <v>0.1383975602253045</v>
+        <v>0.42089339999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,11 +2162,11 @@
       <c r="C73" s="15">
         <v>1</v>
       </c>
-      <c r="D73" s="16">
-        <v>43217.626388888886</v>
+      <c r="D73" s="18">
+        <v>9.65</v>
       </c>
       <c r="E73" s="3">
-        <v>0.77705886542709179</v>
+        <v>0.57233109999999998</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2176,9 +2179,9 @@
       <c r="C74" s="15">
         <v>0</v>
       </c>
-      <c r="D74" s="15"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="3">
-        <v>0.15422489920255811</v>
+        <v>0.36831380000000002</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2191,9 +2194,9 @@
       <c r="C75" s="15">
         <v>0</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="3">
-        <v>8.7856155197500063E-2</v>
+        <v>0.39668439999999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2206,9 +2209,9 @@
       <c r="C76" s="15">
         <v>0</v>
       </c>
-      <c r="D76" s="15"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3">
-        <v>9.9352352414002143E-2</v>
+        <v>0.26708949999999998</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2221,9 +2224,9 @@
       <c r="C77" s="15">
         <v>0</v>
       </c>
-      <c r="D77" s="15"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="3">
-        <v>0.12687981362958289</v>
+        <v>0.30061506999999998</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2236,9 +2239,9 @@
       <c r="C78" s="15">
         <v>0</v>
       </c>
-      <c r="D78" s="15"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3">
-        <v>0.10708671126367963</v>
+        <v>0.30695099999999997</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,11 +2254,11 @@
       <c r="C79" s="15">
         <v>1</v>
       </c>
-      <c r="D79" s="16">
-        <v>43271.395138888889</v>
+      <c r="D79" s="18">
+        <v>16</v>
       </c>
       <c r="E79" s="3">
-        <v>0.6824933802904406</v>
+        <v>0.63531302999999995</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,11 +2271,11 @@
       <c r="C80" s="15">
         <v>1</v>
       </c>
-      <c r="D80" s="16">
-        <v>43224.402083333334</v>
+      <c r="D80" s="18">
+        <v>14.1166666666666</v>
       </c>
       <c r="E80" s="3">
-        <v>0.85587889759053781</v>
+        <v>0.67341879999999998</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,9 +2288,9 @@
       <c r="C81" s="15">
         <v>0</v>
       </c>
-      <c r="D81" s="15"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="3">
-        <v>0.12879591834139073</v>
+        <v>0.40845805000000002</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2300,11 +2303,11 @@
       <c r="C82" s="15">
         <v>1</v>
       </c>
-      <c r="D82" s="16">
-        <v>43373.394444444442</v>
+      <c r="D82" s="18">
+        <v>27.85</v>
       </c>
       <c r="E82" s="3">
-        <v>0.88435162109977439</v>
+        <v>0.64444785999999998</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2317,11 +2320,11 @@
       <c r="C83" s="15">
         <v>1</v>
       </c>
-      <c r="D83" s="16">
-        <v>43131.688888888886</v>
+      <c r="D83" s="18">
+        <v>20.566666666666599</v>
       </c>
       <c r="E83" s="3">
-        <v>0.70373790895045929</v>
+        <v>0.62957059999999998</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2334,11 +2337,11 @@
       <c r="C84" s="15">
         <v>1</v>
       </c>
-      <c r="D84" s="16">
-        <v>43121.405555555553</v>
+      <c r="D84" s="18">
+        <v>27.433333333333302</v>
       </c>
       <c r="E84" s="3">
-        <v>0.86551690334462728</v>
+        <v>0.55386542999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,9 +2354,9 @@
       <c r="C85" s="15">
         <v>0</v>
       </c>
-      <c r="D85" s="15"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="3">
-        <v>6.6058708951912903E-2</v>
+        <v>0.26940890000000001</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2366,9 +2369,9 @@
       <c r="C86" s="15">
         <v>0</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="3">
-        <v>6.6174408435361362E-2</v>
+        <v>0.32239822000000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2381,9 +2384,9 @@
       <c r="C87" s="15">
         <v>0</v>
       </c>
-      <c r="D87" s="15"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="3">
-        <v>8.8986097213076765E-2</v>
+        <v>0.26680166</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2396,9 +2399,9 @@
       <c r="C88" s="15">
         <v>0</v>
       </c>
-      <c r="D88" s="15"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="3">
-        <v>8.6527478243060993E-2</v>
+        <v>0.41830689999999998</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2411,9 +2414,9 @@
       <c r="C89" s="15">
         <v>0</v>
       </c>
-      <c r="D89" s="15"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="3">
-        <v>0.10536460656283769</v>
+        <v>0.42795232</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2426,9 +2429,9 @@
       <c r="C90" s="15">
         <v>0</v>
       </c>
-      <c r="D90" s="15"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="3">
-        <v>9.3811239543471869E-2</v>
+        <v>0.48828968</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2441,9 +2444,9 @@
       <c r="C91" s="15">
         <v>0</v>
       </c>
-      <c r="D91" s="15"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="3">
-        <v>0.10286944421767459</v>
+        <v>0.28636866999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2456,9 +2459,9 @@
       <c r="C92" s="15">
         <v>0</v>
       </c>
-      <c r="D92" s="15"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3">
-        <v>0.13685235213844119</v>
+        <v>0.32474272999999998</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,9 +2474,9 @@
       <c r="C93" s="15">
         <v>0</v>
       </c>
-      <c r="D93" s="15"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="3">
-        <v>7.3177630010976311E-2</v>
+        <v>0.28188672999999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,9 +2489,9 @@
       <c r="C94" s="15">
         <v>0</v>
       </c>
-      <c r="D94" s="15"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3">
-        <v>0.15078203169143789</v>
+        <v>0.39499762999999999</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2501,11 +2504,11 @@
       <c r="C95" s="15">
         <v>1</v>
       </c>
-      <c r="D95" s="16">
-        <v>43420.859027777777</v>
+      <c r="D95" s="18">
+        <v>11.9333333333333</v>
       </c>
       <c r="E95" s="3">
-        <v>0.71925147706454151</v>
+        <v>0.60896490000000003</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2518,9 +2521,9 @@
       <c r="C96" s="15">
         <v>0</v>
       </c>
-      <c r="D96" s="15"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="3">
-        <v>0.11051856664700414</v>
+        <v>0.36420712</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2533,9 +2536,9 @@
       <c r="C97" s="15">
         <v>0</v>
       </c>
-      <c r="D97" s="15"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="3">
-        <v>7.5115070192293659E-2</v>
+        <v>0.35999703</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2548,11 +2551,11 @@
       <c r="C98" s="15">
         <v>1</v>
       </c>
-      <c r="D98" s="16">
-        <v>43175.795138888891</v>
+      <c r="D98" s="18">
+        <v>7.43333333333333</v>
       </c>
       <c r="E98" s="3">
-        <v>0.8707905812827097</v>
+        <v>0.61781240000000004</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2565,9 +2568,9 @@
       <c r="C99" s="15">
         <v>0</v>
       </c>
-      <c r="D99" s="15"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3">
-        <v>0.17490618039401087</v>
+        <v>0.31811357000000001</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2580,9 +2583,9 @@
       <c r="C100" s="15">
         <v>0</v>
       </c>
-      <c r="D100" s="15"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="3">
-        <v>8.6577309428503973E-2</v>
+        <v>0.28239742000000001</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2595,11 +2598,11 @@
       <c r="C101" s="15">
         <v>1</v>
       </c>
-      <c r="D101" s="16">
-        <v>43265.615972222222</v>
+      <c r="D101" s="18">
+        <v>42.75</v>
       </c>
       <c r="E101" s="3">
-        <v>0.6522511950829768</v>
+        <v>0.65284054999999996</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2612,11 +2615,11 @@
       <c r="C102" s="15">
         <v>1</v>
       </c>
-      <c r="D102" s="16">
-        <v>43272.404861111114</v>
+      <c r="D102" s="18">
+        <v>17.6666666666666</v>
       </c>
       <c r="E102" s="3">
-        <v>0.82770574469317304</v>
+        <v>0.69811239999999997</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2629,9 +2632,9 @@
       <c r="C103" s="15">
         <v>0</v>
       </c>
-      <c r="D103" s="15"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="3">
-        <v>4.3125878010735356E-2</v>
+        <v>0.25543051999999999</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,7 +2645,7 @@
         <v>20180311000432</v>
       </c>
       <c r="E104" s="3">
-        <v>0.63775177499752667</v>
+        <v>0.64682525000000002</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,7 +2656,7 @@
         <v>20180708000024</v>
       </c>
       <c r="E105" s="3">
-        <v>0.51810861772263939</v>
+        <v>0.33550079999999999</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2664,7 +2667,7 @@
         <v>20181015001677</v>
       </c>
       <c r="E106" s="3">
-        <v>0.16468194712960829</v>
+        <v>0.59323720000000002</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,7 +2678,7 @@
         <v>20190105000694</v>
       </c>
       <c r="E107" s="3">
-        <v>4.7755102250719092E-2</v>
+        <v>0.35033563000000001</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2686,7 +2689,7 @@
         <v>20190108002459</v>
       </c>
       <c r="E108" s="3">
-        <v>0.14255899882571568</v>
+        <v>0.35593512999999999</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,7 +2700,7 @@
         <v>20190519000853</v>
       </c>
       <c r="E109" s="3">
-        <v>0.2653309516759898</v>
+        <v>0.59730154000000002</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2708,7 +2711,7 @@
         <v>20190526000209</v>
       </c>
       <c r="E110" s="3">
-        <v>0.10594146066226352</v>
+        <v>0.46040934</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2719,7 +2722,7 @@
         <v>20190701002502</v>
       </c>
       <c r="E111" s="3">
-        <v>0.13374573911072002</v>
+        <v>0.43502548000000002</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2730,7 +2733,7 @@
         <v>20190716000013</v>
       </c>
       <c r="E112" s="3">
-        <v>0.2997801182329608</v>
+        <v>0.36594373000000002</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2741,7 +2744,7 @@
         <v>20190717001385</v>
       </c>
       <c r="E113" s="3">
-        <v>0.32581874080880247</v>
+        <v>0.41345749999999998</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2752,7 +2755,7 @@
         <v>20190727000556</v>
       </c>
       <c r="E114" s="3">
-        <v>0.12491961855960045</v>
+        <v>0.30915993000000003</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2763,7 +2766,7 @@
         <v>20190803000014</v>
       </c>
       <c r="E115" s="3">
-        <v>0.1814258474299717</v>
+        <v>0.29102296</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2774,7 +2777,7 @@
         <v>20190901000442</v>
       </c>
       <c r="E116" s="3">
-        <v>0.40591825538912218</v>
+        <v>0.49516636000000003</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2785,7 +2788,7 @@
         <v>20190903000373</v>
       </c>
       <c r="E117" s="3">
-        <v>0.27458665971322499</v>
+        <v>0.35268617000000002</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,7 +2799,7 @@
         <v>20190904002299</v>
       </c>
       <c r="E118" s="3">
-        <v>0.16442519963233831</v>
+        <v>0.29936963</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2807,7 +2810,7 @@
         <v>20190906001283</v>
       </c>
       <c r="E119" s="3">
-        <v>0.10085810901056699</v>
+        <v>0.32860473000000001</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2818,7 +2821,7 @@
         <v>20190917002094</v>
       </c>
       <c r="E120" s="3">
-        <v>8.8337622135690089E-2</v>
+        <v>0.31151685000000001</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2829,7 +2832,7 @@
         <v>20190923002580</v>
       </c>
       <c r="E121" s="3">
-        <v>0.17723368691483959</v>
+        <v>0.4486407</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2840,7 +2843,7 @@
         <v>20191003000352</v>
       </c>
       <c r="E122" s="3">
-        <v>0.14601615158109815</v>
+        <v>0.46714319999999998</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,7 +2854,7 @@
         <v>20191004001025</v>
       </c>
       <c r="E123" s="3">
-        <v>0.223031237685518</v>
+        <v>0.48171862999999998</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,7 +2865,7 @@
         <v>20191027000468</v>
       </c>
       <c r="E124" s="3">
-        <v>0.3898071712393274</v>
+        <v>0.33816859999999999</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2873,7 +2876,7 @@
         <v>20191028002738</v>
       </c>
       <c r="E125" s="3">
-        <v>0.17737830540085098</v>
+        <v>0.40946906999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2884,7 +2887,7 @@
         <v>20191024001280</v>
       </c>
       <c r="E126" s="3">
-        <v>5.924884390662552E-2</v>
+        <v>0.29170188000000002</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,7 +2898,7 @@
         <v>20191030001526</v>
       </c>
       <c r="E127" s="3">
-        <v>0.57874586545810147</v>
+        <v>0.54070353999999998</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2906,7 +2909,7 @@
         <v>20191111002510</v>
       </c>
       <c r="E128" s="3">
-        <v>0.32580762164088839</v>
+        <v>0.59471370000000001</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2917,7 +2920,7 @@
         <v>20191126002590</v>
       </c>
       <c r="E129" s="3">
-        <v>0.43084060969206872</v>
+        <v>0.55617726000000001</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,7 +2931,7 @@
         <v>20191127002176</v>
       </c>
       <c r="E130" s="3">
-        <v>0.17094382173321071</v>
+        <v>0.51219344</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2939,7 +2942,7 @@
         <v>20191208000592</v>
       </c>
       <c r="E131" s="3">
-        <v>0.2530656947121781</v>
+        <v>0.34394960000000002</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2950,7 +2953,7 @@
         <v>20191224000008</v>
       </c>
       <c r="E132" s="3">
-        <v>0.14657409297054708</v>
+        <v>0.27447260000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -2961,7 +2964,7 @@
         <v>20191228000237</v>
       </c>
       <c r="E133" s="3">
-        <v>0.17865617470445935</v>
+        <v>0.6004041</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -2972,7 +2975,7 @@
         <v>20160413000006</v>
       </c>
       <c r="E134" s="3">
-        <v>0.36846012756245095</v>
+        <v>0.60077893999999998</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -2983,7 +2986,7 @@
         <v>20161215001667</v>
       </c>
       <c r="E135" s="3">
-        <v>0.12391674262517473</v>
+        <v>0.42163276999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -2994,7 +2997,7 @@
         <v>20200112000228</v>
       </c>
       <c r="E136" s="3">
-        <v>0.16468122828396509</v>
+        <v>0.35415816</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3005,7 +3008,7 @@
         <v>20200101000392</v>
       </c>
       <c r="E137" s="3">
-        <v>0.17979865591117683</v>
+        <v>0.59601294999999999</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3016,7 +3019,7 @@
         <v>20201130003288</v>
       </c>
       <c r="E138" s="3">
-        <v>0.19997658868027599</v>
+        <v>0.53296995000000003</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3027,7 +3030,7 @@
         <v>20201203002778</v>
       </c>
       <c r="E139" s="3">
-        <v>9.8513561624312657E-2</v>
+        <v>0.30506836999999998</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3038,7 +3041,7 @@
         <v>20201217002368</v>
       </c>
       <c r="E140" s="3">
-        <v>0.13066103806703333</v>
+        <v>0.46837577000000002</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3049,7 +3052,7 @@
         <v>20200403000012</v>
       </c>
       <c r="E141" s="3">
-        <v>0.21199067167563912</v>
+        <v>0.57819609999999999</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3060,7 +3063,7 @@
         <v>20200814000015</v>
       </c>
       <c r="E142" s="3">
-        <v>0.30801144561043919</v>
+        <v>0.35439799999999999</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3071,7 +3074,7 @@
         <v>20200412000331</v>
       </c>
       <c r="E143" s="3">
-        <v>0.26845483121151337</v>
+        <v>0.55084615999999997</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3082,7 +3085,7 @@
         <v>20200711001264</v>
       </c>
       <c r="E144" s="3">
-        <v>3.7666945328603041E-2</v>
+        <v>0.24955843</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3093,7 +3096,7 @@
         <v>20200411000014</v>
       </c>
       <c r="E145" s="3">
-        <v>0.19877210579838439</v>
+        <v>0.41982940000000002</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3104,7 +3107,7 @@
         <v>20200214000572</v>
       </c>
       <c r="E146" s="3">
-        <v>0.13976698323232359</v>
+        <v>0.36030978000000002</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3115,7 +3118,7 @@
         <v>20200124000041</v>
       </c>
       <c r="E147" s="3">
-        <v>0.20384857227466199</v>
+        <v>0.44218594</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3126,7 +3129,7 @@
         <v>20200613001086</v>
       </c>
       <c r="E148" s="3">
-        <v>9.797838563291357E-2</v>
+        <v>0.30908644000000002</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3137,7 +3140,7 @@
         <v>20200531000253</v>
       </c>
       <c r="E149" s="3">
-        <v>9.3685945975341994E-2</v>
+        <v>0.30158596999999998</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3148,7 +3151,7 @@
         <v>20201220000155</v>
       </c>
       <c r="E150" s="3">
-        <v>0.5527584725097705</v>
+        <v>0.63692044999999997</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3159,7 +3162,7 @@
         <v>20200609001016</v>
       </c>
       <c r="E151" s="3">
-        <v>0.12383785456768615</v>
+        <v>0.60848650000000004</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3170,7 +3173,7 @@
         <v>20200409001101</v>
       </c>
       <c r="E152" s="3">
-        <v>0.21359676254787718</v>
+        <v>0.32750678</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3181,7 +3184,7 @@
         <v>20200118000372</v>
       </c>
       <c r="E153" s="3">
-        <v>9.7241599405370069E-2</v>
+        <v>0.30154246000000001</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3192,7 +3195,7 @@
         <v>20201023001238</v>
       </c>
       <c r="E154" s="3">
-        <v>0.22878194255339648</v>
+        <v>0.65002409999999999</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3203,7 +3206,7 @@
         <v>20201109000009</v>
       </c>
       <c r="E155" s="3">
-        <v>0.10897004923104867</v>
+        <v>0.43218192</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3214,7 +3217,7 @@
         <v>20201212001420</v>
       </c>
       <c r="E156" s="3">
-        <v>0.15236705633638911</v>
+        <v>0.35057991999999999</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3225,7 +3228,7 @@
         <v>20201129000299</v>
       </c>
       <c r="E157" s="3">
-        <v>0.16588028468096211</v>
+        <v>0.37211611999999999</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3236,7 +3239,7 @@
         <v>20200301000025</v>
       </c>
       <c r="E158" s="3">
-        <v>0.36688528168409545</v>
+        <v>0.31852582000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3247,7 +3250,7 @@
         <v>20200306000927</v>
       </c>
       <c r="E159" s="3">
-        <v>0.11285115599597435</v>
+        <v>0.44784623000000001</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,7 +3261,7 @@
         <v>20201009003102</v>
       </c>
       <c r="E160" s="3">
-        <v>0.16249810006566992</v>
+        <v>0.49952679999999999</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3269,7 +3272,7 @@
         <v>20200410001952</v>
       </c>
       <c r="E161" s="3">
-        <v>0.43666541108551338</v>
+        <v>0.29975770000000002</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3280,7 +3283,7 @@
         <v>20200218000582</v>
       </c>
       <c r="E162" s="3">
-        <v>0.21513381475841958</v>
+        <v>0.35659491999999998</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3291,7 +3294,7 @@
         <v>20200821002584</v>
       </c>
       <c r="E163" s="3">
-        <v>0.17408701507183388</v>
+        <v>0.26445020000000002</v>
       </c>
     </row>
   </sheetData>
